--- a/Final Project/chatbot_rating.xlsx
+++ b/Final Project/chatbot_rating.xlsx
@@ -483,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
@@ -687,6 +687,52 @@
         <v>5</v>
       </c>
     </row>
+    <row r="17">
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Final Project/chatbot_rating.xlsx
+++ b/Final Project/chatbot_rating.xlsx
@@ -483,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
@@ -733,6 +733,52 @@
         <v>5</v>
       </c>
     </row>
+    <row r="21">
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>19</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>21</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Final Project/chatbot_rating.xlsx
+++ b/Final Project/chatbot_rating.xlsx
@@ -483,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
@@ -779,6 +779,52 @@
         <v>5</v>
       </c>
     </row>
+    <row r="25">
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>23</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>25</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Final Project/chatbot_rating.xlsx
+++ b/Final Project/chatbot_rating.xlsx
@@ -3,31 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1360" yWindow="460" windowWidth="25040" windowHeight="13760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="560" yWindow="460" windowWidth="25040" windowHeight="13760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="12"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -46,27 +41,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -95,15 +75,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -483,10 +460,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -508,12 +485,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -533,12 +508,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -558,12 +531,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -583,12 +554,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -610,10 +579,8 @@
       <c r="B10" t="n">
         <v>7</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="C10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -635,10 +602,8 @@
       <c r="B12" t="n">
         <v>9</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="C12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -661,115 +626,115 @@
         <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>sessionID</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>rating</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B16" t="n">
         <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>sessionID</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>rating</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B18" t="n">
         <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>sessionID</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>rating</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B20" t="n">
         <v>17</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>sessionID</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>rating</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B22" t="n">
         <v>19</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>sessionID</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>rating</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B24" t="n">
@@ -780,48 +745,301 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>sessionID</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>rating</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B26" t="n">
         <v>23</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>sessionID</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>rating</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B28" t="n">
         <v>25</v>
       </c>
       <c r="C28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>27</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>29</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>31</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>33</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>35</v>
+      </c>
+      <c r="C38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>37</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>39</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>41</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>43</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>45</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>47</v>
+      </c>
+      <c r="C50" t="n">
         <v>5</v>
       </c>
     </row>
